--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -410,7 +410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,52 +447,37 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16.08</v>
+        <v>195.87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Wind turbines</t>
+          <t>Battery bank</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>kW</t>
+          <t>kWh</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>87.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Battery bank</t>
+          <t>Diesel Genset</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>kWh</t>
+          <t>kW</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Diesel Genset</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>kW</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>61.79</v>
+        <v>2795.38</v>
       </c>
     </row>
   </sheetData>
@@ -506,7 +491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,7 +548,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>111.403</v>
+        <v>9924.842000000001</v>
       </c>
     </row>
     <row r="3">
@@ -588,7 +573,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>82.85899999999999</v>
+        <v>2201.836</v>
       </c>
     </row>
     <row r="4">
@@ -613,7 +598,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3.841</v>
+        <v>803.284</v>
       </c>
     </row>
     <row r="5">
@@ -638,7 +623,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>86.33199999999999</v>
+        <v>6919.722</v>
       </c>
     </row>
     <row r="6">
@@ -663,7 +648,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-61.629</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
@@ -688,7 +673,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.383</v>
+        <v>0.2418</v>
       </c>
     </row>
     <row r="8">
@@ -713,14 +698,14 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>64.318</v>
+        <v>489.675</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Wind turbines</t>
+          <t>Battery bank</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -734,81 +719,81 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>34.936</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
+          <t>Diesel Genset</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1677.225</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Fixed cost</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>PV panels</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>83.378</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
           <t>Battery bank</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>Diesel Genset</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>18.538</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Fixed cost</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>PV panels</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
           <t>kUSD</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2.233</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Wind turbines</t>
+          <t>Diesel Genset</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -822,41 +807,45 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>713.958</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Lost load cost</t>
+        </is>
+      </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Replacement cost</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
           <t>Battery bank</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>Diesel Genset</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="C15" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
@@ -864,18 +853,18 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.609</v>
+        <v>3.986</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Lost load cost</t>
+          <t>Fuel cost</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="C16" s="1" t="n">
@@ -887,22 +876,14 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>369.945</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Replacement cost</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>Battery bank</t>
-        </is>
-      </c>
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n"/>
       <c r="C17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
@@ -910,36 +891,15 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Fuel cost</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>86.331</v>
+        <v>13456.708</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+  <mergeCells count="4">
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -951,7 +911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -968,22 +928,24 @@
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Lost load cost</t>
         </is>
       </c>
+      <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Replacement cost</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Fuel cost</t>
         </is>
       </c>
+      <c r="J1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -998,34 +960,32 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Wind turbines</t>
+          <t>Battery bank</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
+          <t>Diesel Genset</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="n"/>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
           <t>Battery bank</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>Diesel Genset</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>Battery bank</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="n"/>
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>Diesel</t>
         </is>
       </c>
+      <c r="J2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1048,19 +1008,23 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1104,6 +1068,16 @@
           <t>kUSD</t>
         </is>
       </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1112,25 +1086,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.29</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>83.86</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.93</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
-        <v>49.74</v>
+        <v>0.37</v>
+      </c>
+      <c r="I6" t="n">
+        <v>43.31</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1580.42</v>
       </c>
     </row>
     <row r="7">
@@ -1140,30 +1120,654 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.29</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>83.86</v>
       </c>
       <c r="E7" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>49.74</v>
+        <v>0.38</v>
+      </c>
+      <c r="I7" t="n">
+        <v>43.32</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1580.46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Year 3</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>83.86</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I8" t="n">
+        <v>43.33</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1580.47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>83.86</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>43.35</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1580.49</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>83.86</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I10" t="n">
+        <v>43.37</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1580.52</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Year 6</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>83.86</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I11" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1580.54</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Year 7</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>83.86</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I12" t="n">
+        <v>43.41</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1580.57</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Year 8</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>83.86</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I13" t="n">
+        <v>43.43</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1580.6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Year 9</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>83.86</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I14" t="n">
+        <v>43.46</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1580.63</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Year 10</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>83.86</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I15" t="n">
+        <v>43.48</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1580.66</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Year 11</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D16" t="n">
+        <v>83.86</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I16" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1580.7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Year 12</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>83.86</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I17" t="n">
+        <v>43.55</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1580.74</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Year 13</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>83.86</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I18" t="n">
+        <v>43.58</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1580.79</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Year 14</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D19" t="n">
+        <v>83.86</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I19" t="n">
+        <v>43.62</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1580.83</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Year 15</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D20" t="n">
+        <v>83.86</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I20" t="n">
+        <v>43.67</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1580.88</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Year 16</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D21" t="n">
+        <v>83.86</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I21" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1580.94</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Year 17</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D22" t="n">
+        <v>83.86</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I22" t="n">
+        <v>43.77</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Year 18</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D23" t="n">
+        <v>83.86</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I23" t="n">
+        <v>43.82</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1581.07</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Year 19</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D24" t="n">
+        <v>83.86</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I24" t="n">
+        <v>43.88</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1581.14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Year 20</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D25" t="n">
+        <v>83.86</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I25" t="n">
+        <v>43.95</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1581.21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+  <mergeCells count="7">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1175,7 +1779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,16 +1844,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79.66</v>
+        <v>47.83</v>
       </c>
       <c r="C4" t="n">
-        <v>20.83</v>
+        <v>12.69</v>
       </c>
       <c r="D4" t="n">
-        <v>0.61</v>
+        <v>3.35</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="5">
@@ -1259,16 +1863,358 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79.66</v>
+        <v>47.83</v>
       </c>
       <c r="C5" t="n">
-        <v>20.83</v>
+        <v>12.69</v>
       </c>
       <c r="D5" t="n">
-        <v>0.61</v>
+        <v>3.35</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Year 3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>47.83</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>47.83</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>47.83</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Year 6</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>47.84</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Year 7</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>47.84</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Year 8</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>47.84</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Year 9</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>47.84</v>
+      </c>
+      <c r="C12" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Year 10</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>47.84</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Year 11</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>47.84</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Year 12</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Year 13</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Year 14</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="C17" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Year 15</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="C18" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Year 16</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>47.86</v>
+      </c>
+      <c r="C19" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Year 17</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>47.86</v>
+      </c>
+      <c r="C20" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Year 18</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>47.86</v>
+      </c>
+      <c r="C21" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Year 19</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>47.87</v>
+      </c>
+      <c r="C22" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Year 20</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>47.87</v>
+      </c>
+      <c r="C23" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
